--- a/solmutator/results/operators.xlsx
+++ b/solmutator/results/operators.xlsx
@@ -460,7 +460,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>0</v>
@@ -469,13 +469,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>0</v>
@@ -483,11 +483,8 @@
       <c r="I3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" s="3" t="n">
-        <v>0.53955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -591,7 +588,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>0</v>
@@ -600,13 +597,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3" t="n">
         <v>0</v>
@@ -618,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>1.1859</v>
+        <v>0.14155</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -658,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>0</v>
@@ -667,25 +664,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -725,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0</v>
@@ -746,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>0.03568333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -789,7 +783,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>0</v>
@@ -810,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>0.013683333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -821,7 +815,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>0</v>
@@ -830,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="n">
         <v>0</v>
@@ -844,11 +838,8 @@
       <c r="I14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" s="3" t="n">
-        <v>0.019566666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -856,7 +847,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>0</v>
@@ -865,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>0</v>
@@ -883,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>0.0413</v>
+        <v>0.029016666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -955,7 +946,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0</v>
@@ -964,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="H18" s="3" t="n">
         <v>0</v>
@@ -982,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>2.21915</v>
+        <v>0.16626666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -990,7 +981,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0</v>
@@ -999,25 +990,22 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>0.2337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1057,7 +1045,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0</v>
@@ -1066,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3" t="n">
         <v>0</v>
@@ -1084,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>1.6264333333333334</v>
+        <v>0.05661666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1124,7 +1112,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0</v>
@@ -1133,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>0</v>
@@ -1147,11 +1135,8 @@
       <c r="I23" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" s="3" t="n">
-        <v>0.22108333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1255,7 +1240,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0</v>
@@ -1276,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>0.00695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1351,7 +1336,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>0</v>
@@ -1360,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3" t="n">
         <v>0</v>
@@ -1374,11 +1359,8 @@
       <c r="I30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" s="3" t="n">
-        <v>0.16876666666666668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1450,7 +1432,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>0</v>
@@ -1459,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>0</v>
@@ -1473,11 +1455,8 @@
       <c r="I33" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" s="3" t="n">
-        <v>0.08158333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1549,7 +1528,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>0</v>
@@ -1558,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3" t="n">
         <v>0</v>
@@ -1572,11 +1551,8 @@
       <c r="I36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" s="3" t="n">
-        <v>0.020266666666666665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1584,7 +1560,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>0</v>
@@ -1593,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3" t="n">
         <v>0</v>
@@ -1607,11 +1583,8 @@
       <c r="I37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="K37" s="3" t="n">
-        <v>0.0201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,7 +1688,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>0</v>
@@ -1724,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>0</v>
@@ -1738,11 +1711,8 @@
       <c r="I41" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="K41" s="3" t="n">
-        <v>0.05896666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1750,7 +1720,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>0</v>
@@ -1759,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>0</v>
@@ -1773,11 +1743,8 @@
       <c r="I42" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J42" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="K42" s="3" t="n">
-        <v>0.022133333333333335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1785,7 +1752,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>0</v>
@@ -1794,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>0</v>
@@ -1808,11 +1775,8 @@
       <c r="I43" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="K43" s="3" t="n">
-        <v>0.35891666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1852,7 +1816,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>0</v>
@@ -1861,25 +1825,25 @@
         <v>0</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F45" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>1.0607333333333333</v>
+        <v>0.05831666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/solmutator/results/operators.xlsx
+++ b/solmutator/results/operators.xlsx
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>0.14155</v>
+        <v>0.14308333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>0.16626666666666667</v>
+        <v>0.17395</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,7 +1045,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="3" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>0.05661666666666667</v>
+        <v>0.09021666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>0.05831666666666667</v>
+        <v>0.05648333333333334</v>
       </c>
     </row>
   </sheetData>
